--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2327.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2327.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.336306493350963</v>
+        <v>1.175898432731628</v>
       </c>
       <c r="B1">
-        <v>2.814164681939221</v>
+        <v>1.416824102401733</v>
       </c>
       <c r="C1">
-        <v>1.077612165377597</v>
+        <v>1.250287532806396</v>
       </c>
       <c r="D1">
-        <v>0.7316626614161795</v>
+        <v>1.362024784088135</v>
       </c>
       <c r="E1">
-        <v>0.6115094443862502</v>
+        <v>1.22085440158844</v>
       </c>
     </row>
   </sheetData>
